--- a/src/test/resources/ExcelData.xlsx
+++ b/src/test/resources/ExcelData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KESHRI\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECLIPSE\AutomationCalander\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CBFB10-84A9-4C67-B2D5-61BC4CA5025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EB7125-31B5-41F6-BCC5-A76AECEB6233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3768" yWindow="3768" windowWidth="10464" windowHeight="6912" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="2" r:id="rId1"/>
     <sheet name="organizations" sheetId="1" r:id="rId2"/>
     <sheet name="dataProviderOrg" sheetId="3" r:id="rId3"/>
+    <sheet name="leads" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>TC_ID</t>
   </si>
@@ -138,6 +139,27 @@
   </si>
   <si>
     <t>Rai</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>LEarnTesting</t>
+  </si>
+  <si>
+    <t>Hira Ltd.</t>
+  </si>
+  <si>
+    <t>Direct Mail</t>
   </si>
 </sst>
 </file>
@@ -202,11 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,4 +805,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED2B79F-8EB0-45F7-8354-DE5285B7C737}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>